--- a/Tool 3/core/train/train_edges.xlsx
+++ b/Tool 3/core/train/train_edges.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iparm\Desktop\Traffic_Evolution\data\train\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iparm\Desktop\ORCHESTRA Tools\Tool 3\core\train\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE13AFF-3396-4AB8-9B3E-ED5C8ADEA8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF246B1-2D40-44FC-B5F0-1FA9B24EC7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27180" yWindow="1545" windowWidth="13605" windowHeight="12885" xr2:uid="{9039E198-4E99-4D2C-AC08-C0684BA4AC05}"/>
+    <workbookView xWindow="-28800" yWindow="150" windowWidth="14475" windowHeight="12885" xr2:uid="{9039E198-4E99-4D2C-AC08-C0684BA4AC05}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>u</t>
   </si>
@@ -67,9 +67,6 @@
     <t xml:space="preserve">rescaldina - castellanza </t>
   </si>
   <si>
-    <t>catellanza - busto</t>
-  </si>
-  <si>
     <t>busto - ferno</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>cadorna - bovisa</t>
   </si>
   <si>
-    <t>bovisa - saronno</t>
-  </si>
-  <si>
     <t>saronno - busto</t>
   </si>
   <si>
@@ -137,6 +131,9 @@
   </si>
   <si>
     <t>v_ig</t>
+  </si>
+  <si>
+    <t>castellanza - busto</t>
   </si>
 </sst>
 </file>
@@ -499,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB7F4862-F7EE-4E75-88F1-E85432366872}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I2" sqref="I2:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,132 +524,132 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>314610267</v>
+        <v>981</v>
       </c>
       <c r="B2" s="1">
-        <v>154780178</v>
+        <v>982</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>28168</v>
+        <v>981</v>
       </c>
       <c r="J2" s="1">
-        <v>6499</v>
+        <v>982</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>154780178</v>
+        <v>982</v>
       </c>
       <c r="B3" s="1">
-        <v>78420139</v>
+        <v>3932</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1">
-        <v>6499</v>
+        <v>982</v>
       </c>
       <c r="J3" s="1">
-        <v>4912</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>78420139</v>
+        <v>982</v>
       </c>
       <c r="B4" s="1">
-        <v>599920092</v>
+        <v>1529</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
-        <v>4912</v>
+        <v>982</v>
       </c>
       <c r="J4" s="1">
-        <v>47496</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>599920092</v>
+        <v>982</v>
       </c>
       <c r="B5" s="1">
-        <v>8551584642</v>
+        <v>981</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1">
         <v>360</v>
@@ -661,254 +658,254 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1">
-        <v>47496</v>
+        <v>982</v>
       </c>
       <c r="J5" s="1">
-        <v>60959</v>
+        <v>981</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>8551584642</v>
+        <v>1529</v>
       </c>
       <c r="B6" s="1">
-        <v>1128370186</v>
+        <v>982</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1">
-        <v>60959</v>
+        <v>1529</v>
       </c>
       <c r="J6" s="1">
-        <v>59253</v>
+        <v>982</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>1128370186</v>
+        <v>1529</v>
       </c>
       <c r="B7" s="1">
-        <v>3811564248</v>
+        <v>5110</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I7" s="1">
-        <v>59253</v>
+        <v>1529</v>
       </c>
       <c r="J7" s="1">
-        <v>66380</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>3811564248</v>
+        <v>3809</v>
       </c>
       <c r="B8" s="1">
-        <v>6411754149</v>
+        <v>3813</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I8" s="1">
-        <v>66380</v>
+        <v>3809</v>
       </c>
       <c r="J8" s="1">
-        <v>32154</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>6411754149</v>
+        <v>3809</v>
       </c>
       <c r="B9" s="1">
-        <v>382628843</v>
+        <v>3814</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1">
-        <v>240</v>
+        <v>540</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I9" s="1">
-        <v>32154</v>
+        <v>3809</v>
       </c>
       <c r="J9" s="1">
-        <v>4735</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>21663203</v>
+        <v>3813</v>
       </c>
       <c r="B10" s="1">
-        <v>78420139</v>
+        <v>3809</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1">
-        <v>360</v>
+        <v>240</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I10" s="1">
-        <v>1078</v>
+        <v>3813</v>
       </c>
       <c r="J10" s="1">
-        <v>4912</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>78420139</v>
+        <v>3813</v>
       </c>
       <c r="B11" s="1">
-        <v>599920092</v>
+        <v>14059</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>4912</v>
+        <v>3813</v>
       </c>
       <c r="J11" s="1">
-        <v>47496</v>
+        <v>14059</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>599920092</v>
+        <v>3814</v>
       </c>
       <c r="B12" s="1">
-        <v>3811564248</v>
+        <v>3813</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I12" s="1">
-        <v>47496</v>
+        <v>3814</v>
       </c>
       <c r="J12" s="1">
-        <v>66380</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>3811564248</v>
+        <v>3814</v>
       </c>
       <c r="B13" s="1">
-        <v>382628843</v>
+        <v>3809</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1">
         <v>540</v>
@@ -917,30 +914,30 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I13" s="1">
-        <v>66380</v>
+        <v>3814</v>
       </c>
       <c r="J13" s="1">
-        <v>4735</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>154780178</v>
+        <v>3814</v>
       </c>
       <c r="B14" s="1">
-        <v>314610267</v>
+        <v>3932</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1">
         <v>600</v>
@@ -949,30 +946,30 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I14" s="1">
-        <v>6499</v>
+        <v>3814</v>
       </c>
       <c r="J14" s="1">
-        <v>28168</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>78420139</v>
+        <v>3932</v>
       </c>
       <c r="B15" s="1">
-        <v>154780178</v>
+        <v>32300</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E15" s="1">
         <v>360</v>
@@ -981,339 +978,310 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I15" s="1">
-        <v>4912</v>
+        <v>3932</v>
       </c>
       <c r="J15" s="1">
-        <v>6499</v>
+        <v>32300</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>599920092</v>
+        <v>3932</v>
       </c>
       <c r="B16" s="1">
-        <v>78420139</v>
+        <v>3814</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I16" s="1">
-        <v>47496</v>
+        <v>3932</v>
       </c>
       <c r="J16" s="1">
-        <v>4912</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>8551584642</v>
+        <v>3932</v>
       </c>
       <c r="B17" s="1">
-        <v>599920092</v>
+        <v>982</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I17" s="1">
-        <v>60959</v>
+        <v>3932</v>
       </c>
       <c r="J17" s="1">
-        <v>47496</v>
+        <v>982</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>1128370186</v>
+        <v>3932</v>
       </c>
       <c r="B18" s="1">
-        <v>8551584642</v>
+        <v>982</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1">
-        <v>300</v>
+        <v>720</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I18" s="1">
-        <v>59253</v>
+        <v>3932</v>
       </c>
       <c r="J18" s="1">
-        <v>60959</v>
+        <v>982</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>3811564248</v>
+        <v>5110</v>
       </c>
       <c r="B19" s="1">
-        <v>1128370186</v>
+        <v>1529</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I19" s="1">
-        <v>66380</v>
+        <v>5110</v>
       </c>
       <c r="J19" s="1">
-        <v>59253</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>6411754149</v>
+        <v>14059</v>
       </c>
       <c r="B20" s="1">
-        <v>3811564248</v>
+        <v>3814</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E20" s="1">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20">
         <v>19</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
       <c r="I20" s="1">
-        <v>32154</v>
+        <v>14059</v>
       </c>
       <c r="J20" s="1">
-        <v>66380</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>382628843</v>
+        <v>14059</v>
       </c>
       <c r="B21" s="1">
-        <v>6411754149</v>
+        <v>32300</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E21" s="1">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>4735</v>
+        <v>14059</v>
       </c>
       <c r="J21" s="1">
-        <v>32154</v>
+        <v>32300</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>78420139</v>
+        <v>14059</v>
       </c>
       <c r="B22" s="1">
-        <v>21663203</v>
+        <v>14059</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E22" s="1">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I22" s="1">
-        <v>4912</v>
+        <v>14059</v>
       </c>
       <c r="J22" s="1">
-        <v>1078</v>
+        <v>14059</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>599920092</v>
+        <v>32300</v>
       </c>
       <c r="B23" s="1">
-        <v>78420139</v>
+        <v>14059</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E23" s="1">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I23" s="1">
-        <v>47496</v>
+        <v>32300</v>
       </c>
       <c r="J23" s="1">
-        <v>4912</v>
+        <v>14059</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>3811564248</v>
+        <v>32300</v>
       </c>
       <c r="B24" s="1">
-        <v>599920092</v>
+        <v>3932</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E24" s="1">
-        <v>600</v>
+        <v>360</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I24" s="1">
-        <v>66380</v>
+        <v>32300</v>
       </c>
       <c r="J24" s="1">
-        <v>47496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>382628843</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3811564248</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="1">
-        <v>540</v>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
-        <v>4735</v>
-      </c>
-      <c r="J25" s="1">
-        <v>66380</v>
+        <v>3932</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J25">
+    <sortCondition ref="A2:A25"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
